--- a/design/doc/课设数据表设计.xlsx
+++ b/design/doc/课设数据表设计.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smdsbz\Documents\HUST\CSIE1601\Courseware\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smdsbz\Documents\HUST\CSIE1601\Courseware\Database\database-experiment\design\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1430BD-B71F-4183-A52E-25FDC7E886A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据表列表" sheetId="1" r:id="rId1"/>
     <sheet name="数据表详细设计" sheetId="2" r:id="rId2"/>
+    <sheet name="API 列表" sheetId="3" r:id="rId3"/>
+    <sheet name="测试流程" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="230">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,24 +536,348 @@
   <si>
     <t>= 起始统计日期 + 1y</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>核心 SQL 语句</t>
+  </si>
+  <si>
+    <t>SQL 语句解释</t>
+  </si>
+  <si>
+    <t>请求方法</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>功能描述</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>所属模块</t>
+  </si>
+  <si>
+    <t>MerchandiseApi</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>按商品编号删除商品。</t>
+  </si>
+  <si>
+    <t>按商品编号更新商品信息。</t>
+  </si>
+  <si>
+    <t>MerchandiseByNameApi</t>
+  </si>
+  <si>
+    <t>按输入名称模糊查找商品信息。</t>
+  </si>
+  <si>
+    <t>/api/query/merchandise
+/&lt;int:id_&gt;</t>
+  </si>
+  <si>
+    <t>/api/byname/merchandise
+/&lt;name&gt;</t>
+  </si>
+  <si>
+    <t>MerchandiseListApi</t>
+  </si>
+  <si>
+    <t>/api/list/merchandise
+/&lt;int:start&gt;
+/&lt;int:count&gt;</t>
+  </si>
+  <si>
+    <t>按商品编号查询商品信息。</t>
+  </si>
+  <si>
+    <t>/api/list/merchandise</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>插入新的商品信息。</t>
+  </si>
+  <si>
+    <t>TransactionApi</t>
+  </si>
+  <si>
+    <t>/api/list/trans
+/&lt;int:start&gt;
+/&lt;int:count&gt;</t>
+  </si>
+  <si>
+    <t>/api/trans</t>
+  </si>
+  <si>
+    <t>插入新的购物订单信息。</t>
+  </si>
+  <si>
+    <t>TransDetailApi</t>
+  </si>
+  <si>
+    <t>/api/query/trans-detail/&lt;int:trans_id&gt;</t>
+  </si>
+  <si>
+    <t>按订单编号查询订单详情。</t>
+  </si>
+  <si>
+    <t>AuthApi</t>
+  </si>
+  <si>
+    <t>/api/auth/login
+/&lt;user&gt;/&lt;passwd_md5&gt;</t>
+  </si>
+  <si>
+    <t>用户登陆。</t>
+  </si>
+  <si>
+    <t>/api/auth/logout/&lt;user&gt;</t>
+  </si>
+  <si>
+    <t>用户注销。</t>
+  </si>
+  <si>
+    <t>EmployeeListApi</t>
+  </si>
+  <si>
+    <t>/api/list/employee
+/&lt;int:start&gt;
+/&lt;int:count&gt;</t>
+  </si>
+  <si>
+    <t>按商品编号范围查询商品信息。</t>
+  </si>
+  <si>
+    <t>按订单编号范围查询订单基本信息。</t>
+  </si>
+  <si>
+    <t>/api/list/employee</t>
+  </si>
+  <si>
+    <t>插入新的店员信息（注册）。</t>
+  </si>
+  <si>
+    <t>ShiftsApi</t>
+  </si>
+  <si>
+    <t>/api/query/shifts
+/&lt;int:employee_id&gt;</t>
+  </si>
+  <si>
+    <t>按店员编号获取指定店员的班次详情。</t>
+  </si>
+  <si>
+    <t>JobsListApi</t>
+  </si>
+  <si>
+    <t>/api/list/jobs</t>
+  </si>
+  <si>
+    <t>获取店员职位列表。</t>
+  </si>
+  <si>
+    <t>VIPListApi</t>
+  </si>
+  <si>
+    <t>/api/list/vip
+/&lt;int:start&gt;
+/&lt;int:count&gt;</t>
+  </si>
+  <si>
+    <t>按 VIP 用户编号范围查询 VIP 用户信息。</t>
+  </si>
+  <si>
+    <t>按店员编号范围查询店员信息。</t>
+  </si>
+  <si>
+    <t>/api/list/vip</t>
+  </si>
+  <si>
+    <t>插入新的 VIP 用户信息。</t>
+  </si>
+  <si>
+    <t>VIPTransRecordApi</t>
+  </si>
+  <si>
+    <t>/api/query/vip-trans-record/&lt;int:vip_id&gt;</t>
+  </si>
+  <si>
+    <t>按 VIP 用户编号获取指定用户
+的消费统计信息。</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>操作内容</t>
+  </si>
+  <si>
+    <t>期待结果</t>
+  </si>
+  <si>
+    <t>使用不存在的用户名登陆。</t>
+  </si>
+  <si>
+    <t>无法登陆。</t>
+  </si>
+  <si>
+    <t>使用错误的密码登陆。</t>
+  </si>
+  <si>
+    <t>使用管理员账户登陆。</t>
+  </si>
+  <si>
+    <t>进入管理员界面，并列出仓库中所有商品。</t>
+  </si>
+  <si>
+    <t>查看班次信息。</t>
+  </si>
+  <si>
+    <t>管理员登陆，但无下线时间。</t>
+  </si>
+  <si>
+    <t>使用收银员账号登陆。</t>
+  </si>
+  <si>
+    <t>进入收银界面。</t>
+  </si>
+  <si>
+    <t>点击添加商品。</t>
+  </si>
+  <si>
+    <t>输入“翡翠”。</t>
+  </si>
+  <si>
+    <t>查询到两条匹配结果。</t>
+  </si>
+  <si>
+    <t>选择“翡翠”。</t>
+  </si>
+  <si>
+    <t>弹出购买个数输入界面。</t>
+  </si>
+  <si>
+    <t>弹出商品名称输入界面。</t>
+  </si>
+  <si>
+    <t>输入“5”。</t>
+  </si>
+  <si>
+    <t>提示库存不足。</t>
+  </si>
+  <si>
+    <t>添加成功。</t>
+  </si>
+  <si>
+    <t>提交订单。</t>
+  </si>
+  <si>
+    <t>提示可免费办理会员卡。</t>
+  </si>
+  <si>
+    <t>订单提交成功。</t>
+  </si>
+  <si>
+    <t>使用管理员账户查看交易信息。</t>
+  </si>
+  <si>
+    <t>查看到交易记录。</t>
+  </si>
+  <si>
+    <t>点击最近一次的交易记录。</t>
+  </si>
+  <si>
+    <t>列出订单明细。</t>
+  </si>
+  <si>
+    <t>提交成功，且商品实际售价为 8 折。</t>
+  </si>
+  <si>
+    <t>使用管理员账户查看 VIP 用户信息。</t>
+  </si>
+  <si>
+    <t>#1 会员被自动续期。</t>
+  </si>
+  <si>
+    <t>列出班次统计信息。</t>
+  </si>
+  <si>
+    <t>点击收银员记录。</t>
+  </si>
+  <si>
+    <t>点击“添加”&gt;“添加商品”。</t>
+  </si>
+  <si>
+    <t>尝试提交订单。</t>
+  </si>
+  <si>
+    <t>弹出提示框。</t>
+  </si>
+  <si>
+    <t>输入各项信息并确认。</t>
+  </si>
+  <si>
+    <t>商品列表中出现新的商品。</t>
+  </si>
+  <si>
+    <t>选择确认。</t>
+  </si>
+  <si>
+    <t>订单不被提交，返回主界面。</t>
+  </si>
+  <si>
+    <t>在“会员注册/续期”页面中
+输入会员信息并提交。</t>
+  </si>
+  <si>
+    <t>系统返回会员卡卡号。</t>
+  </si>
+  <si>
+    <t>弹出会员卡卡号输入界面。</t>
+  </si>
+  <si>
+    <t>输入刚注册的会员卡卡号。</t>
+  </si>
+  <si>
+    <t>“是否会员”勾选，订单内商品 8 折。</t>
+  </si>
+  <si>
+    <t>返回“收银”页面，勾选“是否会员”。</t>
+  </si>
+  <si>
+    <t>重新购买“翡翠”1 个，“大礼包”2
+个。</t>
+  </si>
+  <si>
+    <t>使用收银员账号登陆，并使用 #1 会员卡完成一次购物。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -570,6 +897,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -579,7 +925,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -607,13 +953,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +1035,111 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,25 +1420,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" ht="19.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -955,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="19.5" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -963,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="19.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -971,7 +1462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="19.5" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
@@ -979,7 +1470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="19.5" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -987,7 +1478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="19.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -995,7 +1486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="19.5" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1003,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="19.5" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +1502,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="7" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" s="7" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="19.5" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1036,24 +1527,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="8"/>
-    <col min="2" max="2" width="13.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="8"/>
+    <col min="2" max="2" width="13.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="15" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="8" customWidth="1"/>
     <col min="5" max="5" width="23" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="11.125" style="8"/>
+    <col min="6" max="16384" width="11.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="19.5" customHeight="1" thickBot="1">
       <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1552,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>65</v>
       </c>
@@ -1072,7 +1563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="19.5" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="19.5" customHeight="1">
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1094,7 +1585,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1607,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="19.5" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1124,7 +1615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1135,7 +1626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="19.5" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1637,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="19.5" customHeight="1">
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1157,7 +1648,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" ht="19.5" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
@@ -1168,7 +1659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="19.5" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
@@ -1179,7 +1670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
@@ -1190,7 +1681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="19.5" customHeight="1" thickBot="1">
       <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
@@ -1198,7 +1689,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1209,7 +1700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="19.5" customHeight="1">
       <c r="B19" s="8" t="s">
         <v>40</v>
       </c>
@@ -1220,7 +1711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="19.5" customHeight="1">
       <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
@@ -1231,7 +1722,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
@@ -1242,7 +1733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="19.5" customHeight="1" thickBot="1">
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="B24" s="4" t="s">
         <v>65</v>
       </c>
@@ -1261,7 +1752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="19.5" customHeight="1">
       <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
@@ -1272,7 +1763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="19.5" customHeight="1">
       <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
@@ -1283,7 +1774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="19.5" customHeight="1">
       <c r="B27" s="8" t="s">
         <v>54</v>
       </c>
@@ -1294,7 +1785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
@@ -1305,7 +1796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="19.5" customHeight="1" thickBot="1">
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
@@ -1313,7 +1804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="B31" s="4" t="s">
         <v>65</v>
       </c>
@@ -1324,7 +1815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="19.5" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>75</v>
       </c>
@@ -1335,7 +1826,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" ht="19.5" customHeight="1">
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
@@ -1346,7 +1837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="B34" s="9" t="s">
         <v>82</v>
       </c>
@@ -1357,7 +1848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="19.5" customHeight="1" thickBot="1">
       <c r="B36" s="8" t="s">
         <v>85</v>
       </c>
@@ -1365,7 +1856,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="B37" s="4" t="s">
         <v>65</v>
       </c>
@@ -1376,7 +1867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" ht="19.5" customHeight="1">
       <c r="B38" s="8" t="s">
         <v>86</v>
       </c>
@@ -1387,7 +1878,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" ht="19.5" customHeight="1">
       <c r="B39" s="8" t="s">
         <v>89</v>
       </c>
@@ -1398,7 +1889,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" ht="19.5" customHeight="1">
       <c r="B40" s="8" t="s">
         <v>92</v>
       </c>
@@ -1409,7 +1900,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="B41" s="9" t="s">
         <v>95</v>
       </c>
@@ -1420,7 +1911,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="19.5" customHeight="1" thickBot="1">
       <c r="B43" s="8" t="s">
         <v>12</v>
       </c>
@@ -1428,7 +1919,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="B44" s="4" t="s">
         <v>65</v>
       </c>
@@ -1439,7 +1930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" ht="19.5" customHeight="1">
       <c r="B45" s="8" t="s">
         <v>98</v>
       </c>
@@ -1450,7 +1941,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" ht="19.5" customHeight="1">
       <c r="B46" s="8" t="s">
         <v>100</v>
       </c>
@@ -1461,7 +1952,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="B47" s="9" t="s">
         <v>105</v>
       </c>
@@ -1472,7 +1963,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" ht="19.5" customHeight="1">
       <c r="B49" s="8" t="s">
         <v>101</v>
       </c>
@@ -1486,7 +1977,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="B51" s="8" t="s">
         <v>10</v>
       </c>
@@ -1494,7 +1985,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="2:5" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="B52" s="4" t="s">
         <v>65</v>
       </c>
@@ -1505,7 +1996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" ht="19.5" customHeight="1">
       <c r="B53" s="8" t="s">
         <v>115</v>
       </c>
@@ -1516,7 +2007,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" ht="19.5" customHeight="1">
       <c r="B54" s="8" t="s">
         <v>117</v>
       </c>
@@ -1527,7 +2018,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" ht="19.5" customHeight="1">
       <c r="B55" s="8" t="s">
         <v>120</v>
       </c>
@@ -1538,7 +2029,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="2:5" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="B56" s="9" t="s">
         <v>122</v>
       </c>
@@ -1552,5 +2043,2013 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36970F7A-CA3A-499A-AEBA-D30649CB96F4}">
+  <dimension ref="B1:G234"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="19.5" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="19.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" s="12" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B4" s="17"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="39" customHeight="1">
+      <c r="B6" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="58.5" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="58.5" customHeight="1">
+      <c r="B9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="39" customHeight="1">
+      <c r="B11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="39" customHeight="1">
+      <c r="B12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="59.25" customHeight="1">
+      <c r="B14" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B15" s="19"/>
+      <c r="C15" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="39" customHeight="1">
+      <c r="B16" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B17" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="59.25" customHeight="1">
+      <c r="B18" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B19" s="19"/>
+      <c r="C19" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="39" customHeight="1" thickBot="1">
+      <c r="B20" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B21" s="18"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B22" s="18"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B23" s="18"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B24" s="18"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B25" s="18"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B26" s="18"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B27" s="18"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B28" s="18"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B29" s="18"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B30" s="18"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B31" s="18"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="2:5" ht="19.5" customHeight="1">
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E40" s="34"/>
+    </row>
+    <row r="41" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E41" s="34"/>
+    </row>
+    <row r="42" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E42" s="34"/>
+    </row>
+    <row r="43" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E43" s="34"/>
+    </row>
+    <row r="44" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E44" s="34"/>
+    </row>
+    <row r="45" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E45" s="34"/>
+    </row>
+    <row r="46" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E46" s="34"/>
+    </row>
+    <row r="47" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E49" s="34"/>
+    </row>
+    <row r="50" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E50" s="34"/>
+    </row>
+    <row r="51" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E51" s="34"/>
+    </row>
+    <row r="52" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E54" s="34"/>
+    </row>
+    <row r="55" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E56" s="34"/>
+    </row>
+    <row r="57" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E57" s="34"/>
+    </row>
+    <row r="58" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E58" s="34"/>
+    </row>
+    <row r="59" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E59" s="34"/>
+    </row>
+    <row r="60" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E60" s="34"/>
+    </row>
+    <row r="61" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E61" s="34"/>
+    </row>
+    <row r="62" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E62" s="34"/>
+    </row>
+    <row r="63" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E63" s="34"/>
+    </row>
+    <row r="64" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E64" s="34"/>
+    </row>
+    <row r="65" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E65" s="34"/>
+    </row>
+    <row r="66" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E66" s="34"/>
+    </row>
+    <row r="67" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E67" s="34"/>
+    </row>
+    <row r="68" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E68" s="34"/>
+    </row>
+    <row r="69" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E69" s="34"/>
+    </row>
+    <row r="70" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E70" s="34"/>
+    </row>
+    <row r="71" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E71" s="34"/>
+    </row>
+    <row r="72" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E72" s="34"/>
+    </row>
+    <row r="73" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E73" s="34"/>
+    </row>
+    <row r="74" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E74" s="34"/>
+    </row>
+    <row r="75" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E75" s="34"/>
+    </row>
+    <row r="76" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E76" s="34"/>
+    </row>
+    <row r="77" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E77" s="34"/>
+    </row>
+    <row r="78" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E78" s="34"/>
+    </row>
+    <row r="79" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E79" s="34"/>
+    </row>
+    <row r="80" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E80" s="34"/>
+    </row>
+    <row r="81" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E81" s="34"/>
+    </row>
+    <row r="82" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E82" s="34"/>
+    </row>
+    <row r="83" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E83" s="34"/>
+    </row>
+    <row r="84" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E84" s="34"/>
+    </row>
+    <row r="85" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E85" s="34"/>
+    </row>
+    <row r="86" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E86" s="34"/>
+    </row>
+    <row r="87" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E87" s="34"/>
+    </row>
+    <row r="88" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E88" s="34"/>
+    </row>
+    <row r="89" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E89" s="34"/>
+    </row>
+    <row r="90" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E90" s="34"/>
+    </row>
+    <row r="91" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E91" s="34"/>
+    </row>
+    <row r="92" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E92" s="34"/>
+    </row>
+    <row r="93" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E93" s="34"/>
+    </row>
+    <row r="94" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E94" s="34"/>
+    </row>
+    <row r="95" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E95" s="34"/>
+    </row>
+    <row r="96" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E96" s="34"/>
+    </row>
+    <row r="97" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E97" s="34"/>
+    </row>
+    <row r="98" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E98" s="34"/>
+    </row>
+    <row r="99" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E99" s="34"/>
+    </row>
+    <row r="100" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E100" s="34"/>
+    </row>
+    <row r="101" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E101" s="34"/>
+    </row>
+    <row r="102" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E102" s="34"/>
+    </row>
+    <row r="103" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E103" s="34"/>
+    </row>
+    <row r="104" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E104" s="34"/>
+    </row>
+    <row r="105" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E105" s="34"/>
+    </row>
+    <row r="106" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E106" s="34"/>
+    </row>
+    <row r="107" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E107" s="34"/>
+    </row>
+    <row r="108" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E108" s="34"/>
+    </row>
+    <row r="109" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E109" s="34"/>
+    </row>
+    <row r="110" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E110" s="34"/>
+    </row>
+    <row r="111" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E111" s="34"/>
+    </row>
+    <row r="112" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E112" s="34"/>
+    </row>
+    <row r="113" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E113" s="34"/>
+    </row>
+    <row r="114" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E114" s="34"/>
+    </row>
+    <row r="115" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E115" s="34"/>
+    </row>
+    <row r="116" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E116" s="34"/>
+    </row>
+    <row r="117" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E117" s="34"/>
+    </row>
+    <row r="118" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E118" s="34"/>
+    </row>
+    <row r="119" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E119" s="34"/>
+    </row>
+    <row r="120" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E120" s="34"/>
+    </row>
+    <row r="121" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E121" s="34"/>
+    </row>
+    <row r="122" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E122" s="34"/>
+    </row>
+    <row r="123" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E123" s="34"/>
+    </row>
+    <row r="124" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E124" s="34"/>
+    </row>
+    <row r="125" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E125" s="34"/>
+    </row>
+    <row r="126" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E126" s="34"/>
+    </row>
+    <row r="127" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E127" s="34"/>
+    </row>
+    <row r="128" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E128" s="34"/>
+    </row>
+    <row r="129" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E129" s="34"/>
+    </row>
+    <row r="130" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E130" s="34"/>
+    </row>
+    <row r="131" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E131" s="34"/>
+    </row>
+    <row r="132" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E132" s="34"/>
+    </row>
+    <row r="133" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E133" s="34"/>
+    </row>
+    <row r="134" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E134" s="34"/>
+    </row>
+    <row r="135" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E135" s="34"/>
+    </row>
+    <row r="136" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E136" s="34"/>
+    </row>
+    <row r="137" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E137" s="34"/>
+    </row>
+    <row r="138" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E138" s="34"/>
+    </row>
+    <row r="139" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E139" s="34"/>
+    </row>
+    <row r="140" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E140" s="34"/>
+    </row>
+    <row r="141" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E141" s="34"/>
+    </row>
+    <row r="142" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E142" s="34"/>
+    </row>
+    <row r="143" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E143" s="34"/>
+    </row>
+    <row r="144" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E144" s="34"/>
+    </row>
+    <row r="145" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E145" s="34"/>
+    </row>
+    <row r="146" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E146" s="34"/>
+    </row>
+    <row r="147" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E147" s="34"/>
+    </row>
+    <row r="148" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E148" s="34"/>
+    </row>
+    <row r="149" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E149" s="34"/>
+    </row>
+    <row r="150" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E150" s="34"/>
+    </row>
+    <row r="151" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E151" s="34"/>
+    </row>
+    <row r="152" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E152" s="34"/>
+    </row>
+    <row r="153" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E153" s="34"/>
+    </row>
+    <row r="154" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E154" s="34"/>
+    </row>
+    <row r="155" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E155" s="34"/>
+    </row>
+    <row r="156" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E156" s="34"/>
+    </row>
+    <row r="157" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E157" s="34"/>
+    </row>
+    <row r="158" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E158" s="34"/>
+    </row>
+    <row r="159" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E159" s="34"/>
+    </row>
+    <row r="160" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E160" s="34"/>
+    </row>
+    <row r="161" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E161" s="34"/>
+    </row>
+    <row r="162" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E162" s="34"/>
+    </row>
+    <row r="163" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E163" s="34"/>
+    </row>
+    <row r="164" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E164" s="34"/>
+    </row>
+    <row r="165" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E165" s="34"/>
+    </row>
+    <row r="166" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E166" s="34"/>
+    </row>
+    <row r="167" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E167" s="34"/>
+    </row>
+    <row r="168" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E168" s="34"/>
+    </row>
+    <row r="169" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E169" s="34"/>
+    </row>
+    <row r="170" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E170" s="34"/>
+    </row>
+    <row r="171" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E171" s="34"/>
+    </row>
+    <row r="172" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E172" s="34"/>
+    </row>
+    <row r="173" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E173" s="34"/>
+    </row>
+    <row r="174" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E174" s="34"/>
+    </row>
+    <row r="175" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E175" s="34"/>
+    </row>
+    <row r="176" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E176" s="34"/>
+    </row>
+    <row r="177" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E177" s="34"/>
+    </row>
+    <row r="178" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E178" s="34"/>
+    </row>
+    <row r="179" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E179" s="34"/>
+    </row>
+    <row r="180" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E180" s="34"/>
+    </row>
+    <row r="181" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E181" s="34"/>
+    </row>
+    <row r="182" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E182" s="34"/>
+    </row>
+    <row r="183" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E183" s="34"/>
+    </row>
+    <row r="184" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E184" s="34"/>
+    </row>
+    <row r="185" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E185" s="34"/>
+    </row>
+    <row r="186" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E186" s="34"/>
+    </row>
+    <row r="187" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E187" s="34"/>
+    </row>
+    <row r="188" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E188" s="34"/>
+    </row>
+    <row r="189" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E189" s="34"/>
+    </row>
+    <row r="190" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E190" s="34"/>
+    </row>
+    <row r="191" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E191" s="34"/>
+    </row>
+    <row r="192" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E192" s="34"/>
+    </row>
+    <row r="193" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E193" s="34"/>
+    </row>
+    <row r="194" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E194" s="34"/>
+    </row>
+    <row r="195" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E195" s="34"/>
+    </row>
+    <row r="196" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E196" s="34"/>
+    </row>
+    <row r="197" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E197" s="34"/>
+    </row>
+    <row r="198" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E198" s="34"/>
+    </row>
+    <row r="199" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E199" s="34"/>
+    </row>
+    <row r="200" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E200" s="34"/>
+    </row>
+    <row r="201" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E201" s="34"/>
+    </row>
+    <row r="202" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E202" s="34"/>
+    </row>
+    <row r="203" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E203" s="34"/>
+    </row>
+    <row r="204" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E204" s="34"/>
+    </row>
+    <row r="205" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E205" s="34"/>
+    </row>
+    <row r="206" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E206" s="34"/>
+    </row>
+    <row r="207" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E207" s="34"/>
+    </row>
+    <row r="208" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E208" s="34"/>
+    </row>
+    <row r="209" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E209" s="34"/>
+    </row>
+    <row r="210" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E210" s="34"/>
+    </row>
+    <row r="211" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E211" s="34"/>
+    </row>
+    <row r="212" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E212" s="34"/>
+    </row>
+    <row r="213" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E213" s="34"/>
+    </row>
+    <row r="214" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E214" s="34"/>
+    </row>
+    <row r="215" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E215" s="34"/>
+    </row>
+    <row r="216" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E216" s="34"/>
+    </row>
+    <row r="217" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E217" s="34"/>
+    </row>
+    <row r="218" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E218" s="34"/>
+    </row>
+    <row r="219" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E219" s="34"/>
+    </row>
+    <row r="220" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E220" s="34"/>
+    </row>
+    <row r="221" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E221" s="34"/>
+    </row>
+    <row r="222" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E222" s="34"/>
+    </row>
+    <row r="223" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E223" s="34"/>
+    </row>
+    <row r="224" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E224" s="34"/>
+    </row>
+    <row r="225" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E225" s="34"/>
+    </row>
+    <row r="226" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E226" s="34"/>
+    </row>
+    <row r="227" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E227" s="34"/>
+    </row>
+    <row r="228" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E228" s="34"/>
+    </row>
+    <row r="229" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E229" s="34"/>
+    </row>
+    <row r="230" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E230" s="34"/>
+    </row>
+    <row r="231" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E231" s="34"/>
+    </row>
+    <row r="232" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E232" s="34"/>
+    </row>
+    <row r="233" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E233" s="34"/>
+    </row>
+    <row r="234" spans="5:5" ht="19.5" customHeight="1">
+      <c r="E234" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F71BA3-BEE5-4C13-ABFB-9B187C416F5B}">
+  <dimension ref="B1:D175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="19.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="40"/>
+    <col min="2" max="2" width="5.140625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="12.28515625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:4" s="43" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B2" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B3" s="41">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B4" s="41">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B5" s="41">
+        <v>3</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B6" s="41">
+        <v>4</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B7" s="41">
+        <v>5</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B8" s="41">
+        <v>6</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B9" s="41">
+        <v>7</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B10" s="41">
+        <v>8</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B11" s="41">
+        <v>9</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B12" s="41">
+        <v>10</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="39" customHeight="1">
+      <c r="B13" s="41">
+        <v>11</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B14" s="41">
+        <v>12</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B15" s="41">
+        <v>13</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="39" customHeight="1">
+      <c r="B16" s="41">
+        <v>14</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="39" customHeight="1">
+      <c r="B17" s="41">
+        <v>15</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B18" s="41">
+        <v>16</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B19" s="41">
+        <v>17</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B20" s="41">
+        <v>18</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B21" s="41">
+        <v>19</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="39" customHeight="1">
+      <c r="B22" s="41">
+        <v>20</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="39" customHeight="1">
+      <c r="B23" s="41">
+        <v>21</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B24" s="41">
+        <v>22</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B25" s="41">
+        <v>23</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B26" s="45">
+        <v>24</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B27" s="41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B28" s="41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B29" s="41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B30" s="41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B31" s="41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B32" s="41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B33" s="41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B34" s="41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B35" s="41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B36" s="41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B37" s="41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B38" s="41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B39" s="41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B40" s="41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B41" s="41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B42" s="41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B43" s="41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B44" s="41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B45" s="41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B46" s="41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B47" s="41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B48" s="41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B49" s="41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B50" s="41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B51" s="41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B52" s="41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B53" s="41">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B54" s="41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B55" s="41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B56" s="41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B57" s="41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B58" s="41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B59" s="41">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B60" s="41">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B61" s="41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B62" s="41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B63" s="41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B64" s="41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B65" s="41">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B66" s="41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B67" s="41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B68" s="41">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B69" s="41">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B70" s="41">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B71" s="41">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B72" s="41">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B73" s="41">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B74" s="41">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B75" s="41">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B76" s="41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B77" s="41">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B78" s="41">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B79" s="41">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B80" s="41">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B81" s="41">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B82" s="41">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B83" s="41">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B84" s="41">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B85" s="41">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B86" s="41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B87" s="41">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B88" s="41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B89" s="41">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B90" s="41">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B91" s="41">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B92" s="41">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B93" s="41">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B94" s="41">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B95" s="41">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B96" s="41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B97" s="41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B98" s="41">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B99" s="41">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B100" s="41">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B101" s="41">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B102" s="41">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B103" s="41">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B104" s="41">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B105" s="41">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B106" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B107" s="41">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B108" s="41">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B109" s="41">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B110" s="41">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B111" s="41">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B112" s="41">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B113" s="41">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B114" s="41">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B115" s="41">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B116" s="41">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B117" s="41">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B118" s="41">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B119" s="41">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B120" s="41">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B121" s="41">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B122" s="41">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B123" s="41">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B124" s="41">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B125" s="41">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B126" s="41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B127" s="41">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B128" s="41">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B129" s="41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B130" s="41">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B131" s="41">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B132" s="41">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B133" s="41">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B134" s="41">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B135" s="41">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B136" s="41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B137" s="41">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B138" s="41">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B139" s="41">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B140" s="41">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B141" s="41">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B142" s="41">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B143" s="41">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B144" s="41">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B145" s="41">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B146" s="41">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B147" s="41">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B148" s="41">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B149" s="41">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B150" s="41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B151" s="41">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B152" s="41">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B153" s="41">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B154" s="41">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B155" s="41">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B156" s="41">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B157" s="41">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B158" s="41">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B159" s="41">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B160" s="41">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B161" s="41">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B162" s="41">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B163" s="41">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B164" s="41">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B165" s="41">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B166" s="41">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B167" s="41">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B168" s="41">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B169" s="41">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B170" s="41">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B171" s="41">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B172" s="41">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B173" s="41">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B174" s="41">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" ht="19.5" customHeight="1">
+      <c r="B175" s="41">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>